--- a/SeleniumJavaFramework/src/main/java/com/hrm/qa/testdata/HRM_Testdata.xlsx
+++ b/SeleniumJavaFramework/src/main/java/com/hrm/qa/testdata/HRM_Testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\SeleniumConcepts\SeleniumJavaFramework\src\main\java\com\hrm\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUDDAM\git\repository\SeleniumJavaFramework\src\main\java\com\hrm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06118E6-3B47-4FB6-BE18-DE4473E00651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F1B39B-3690-4590-8F51-083B90A0E736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A2A5B5F-E560-43D5-81D5-83063DFD9AC4}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
